--- a/position v2/fish.xlsx
+++ b/position v2/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wb_card-phars\position v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB38678-42D2-4345-AF30-FBF2F60B3BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D680D-D0C1-40AC-B1DF-3101E3DCD915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="3795" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -182,6 +182,97 @@
           <bgColor rgb="FFE0F4DC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFBFB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFE0F4DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFBFB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFBFB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -481,7 +572,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,28 +619,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD2">
-    <cfRule type="expression" dxfId="5" priority="33">
+    <cfRule type="expression" dxfId="11" priority="33">
       <formula>A$2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:XFD3">
-    <cfRule type="expression" dxfId="4" priority="30">
-      <formula>D3="V"</formula>
+  <conditionalFormatting sqref="D3:XFD333">
+    <cfRule type="expression" dxfId="6" priority="30">
+      <formula>D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="expression" dxfId="3" priority="47">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="9" priority="81">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule type="expression" dxfId="8" priority="83">
       <formula>$A3=MAX($A$3:$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="84">
+    <cfRule type="expression" dxfId="7" priority="84">
       <formula>$A3=0</formula>
     </cfRule>
   </conditionalFormatting>
